--- a/inst/extdata/exampleARS_2a.xlsx
+++ b/inst/extdata/exampleARS_2a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clymb-my.sharepoint.com/personal/mbosman_clymb_onmicrosoft_com/Documents/Documents/siera/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A4694E21-71F9-4497-A6AD-F9E665237FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F9DF04D-DF1D-4A23-995F-0A4CDA6B5DAE}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{A4694E21-71F9-4497-A6AD-F9E665237FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C61615A6-7CAD-409B-BC03-29C226B5A99A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-27840" yWindow="960" windowWidth="21600" windowHeight="11235" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2979,7 +2979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3042,11 +3044,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -5026,9 +5040,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -6831,9 +6872,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
